--- a/assets/export/Excel_DataPelanggan.xlsx
+++ b/assets/export/Excel_DataPelanggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\nakasy\assets\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63E23EC-9233-47E2-9878-730D5985B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A30153-1FAB-44F6-933D-A7FF0E133726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>Home 5</t>
   </si>
   <si>
-    <t>inflyajalah</t>
-  </si>
-  <si>
     <t>*12</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Alihadi</t>
+  </si>
+  <si>
+    <t>infly</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -260,7 +260,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -637,10 +637,10 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -660,7 +660,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="9"/>
       <c r="H2" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -765,25 +765,25 @@
         <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="K6" s="11">
         <v>44208</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/assets/export/Excel_DataPelanggan.xlsx
+++ b/assets/export/Excel_DataPelanggan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\nakasy\assets\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A30153-1FAB-44F6-933D-A7FF0E133726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC5551B-0B5C-4430-B229-50022D54BCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Kode Customer</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Password_PPPOE</t>
   </si>
   <si>
-    <t>ID_PPPOE</t>
-  </si>
-  <si>
     <t>Alamat Customer</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t>Home 5</t>
-  </si>
-  <si>
-    <t>*12</t>
   </si>
   <si>
     <t>Jl. Permata Damai</t>
@@ -606,7 +600,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -637,10 +631,10 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
@@ -660,7 +654,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="9"/>
       <c r="H2" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -741,9 +735,7 @@
       <c r="M5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="N5"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6">
@@ -753,38 +745,36 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="J6" s="11">
         <v>44208</v>
       </c>
+      <c r="L6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="M6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="N6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -794,7 +784,7 @@
     <mergeCell ref="H2:N2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1" xr:uid="{3CBAB2E2-4A50-4DAC-BEE5-1009A065C688}"/>
+    <hyperlink ref="I6" r:id="rId1" xr:uid="{3CBAB2E2-4A50-4DAC-BEE5-1009A065C688}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
